--- a/results.xlsx
+++ b/results.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d13ef9b6ec77f44c/Post Bearing Proj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mattjkenney\projects\bearingDefectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_606117BD8750DF763F5A3F11595ED87656CDD13C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8613DC1B-DE09-47C5-8D6C-605070E27302}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46019A4-4BA2-4F14-A677-5D8C1665DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="KA" sheetId="4" r:id="rId2"/>
+    <sheet name="CA" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>FD</t>
   </si>
@@ -94,6 +96,9 @@
   </si>
   <si>
     <t>nPeriods= 100</t>
+  </si>
+  <si>
+    <t>Number of Periods</t>
   </si>
 </sst>
 </file>
@@ -155,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,7 +170,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3949,8 +3953,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4392,28 +4396,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4459,425 +4461,425 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <v>68.8888888888889</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
-        <v>81.111111111111114</v>
+        <v>63.333333333333343</v>
       </c>
       <c r="D5" s="4">
-        <v>76.666666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E5" s="4">
-        <v>70</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="F5" s="4">
-        <v>65.555555555555557</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="G5" s="4">
-        <v>71.111111111111114</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="H5" s="4">
-        <v>71.1111111111111</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="I5" s="4">
-        <v>64.444444444444443</v>
+        <v>91.1111111111111</v>
       </c>
       <c r="J5" s="4">
-        <v>72.222222222222214</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="K5" s="4">
-        <v>70</v>
-      </c>
-      <c r="L5" s="5">
-        <v>711.11111111111109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>82.222222222222214</v>
+      </c>
+      <c r="L5">
+        <v>785.55555555555543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>77.777777777777786</v>
+        <v>57.777777777777779</v>
       </c>
       <c r="C6" s="4">
-        <v>82.222222222222214</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="D6" s="4">
-        <v>77.777777777777771</v>
+        <v>74.444444444444443</v>
       </c>
       <c r="E6" s="4">
-        <v>81.111111111111114</v>
+        <v>81.1111111111111</v>
       </c>
       <c r="F6" s="4">
-        <v>75.555555555555557</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4">
-        <v>76.666666666666671</v>
+        <v>90</v>
       </c>
       <c r="H6" s="4">
-        <v>75.555555555555557</v>
+        <v>92.222222222222214</v>
       </c>
       <c r="I6" s="4">
-        <v>65.555555555555557</v>
+        <v>87.777777777777786</v>
       </c>
       <c r="J6" s="4">
-        <v>70</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="K6" s="4">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="L6" s="5">
-        <v>751.1111111111112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>808.88888888888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
-        <v>78.8888888888889</v>
+        <v>57.777777777777779</v>
       </c>
       <c r="C7" s="4">
-        <v>76.666666666666671</v>
+        <v>67.777777777777771</v>
       </c>
       <c r="D7" s="4">
-        <v>73.333333333333329</v>
+        <v>71.1111111111111</v>
       </c>
       <c r="E7" s="4">
-        <v>72.222222222222229</v>
+        <v>74.444444444444443</v>
       </c>
       <c r="F7" s="4">
-        <v>76.666666666666671</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="G7" s="4">
-        <v>72.222222222222229</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="H7" s="4">
-        <v>67.777777777777786</v>
+        <v>92.222222222222229</v>
       </c>
       <c r="I7" s="4">
-        <v>70</v>
+        <v>91.111111111111128</v>
       </c>
       <c r="J7" s="4">
-        <v>72.222222222222229</v>
+        <v>91.1111111111111</v>
       </c>
       <c r="K7" s="4">
-        <v>68.8888888888889</v>
-      </c>
-      <c r="L7" s="5">
-        <v>728.88888888888891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88.888888888888872</v>
+      </c>
+      <c r="L7">
+        <v>801.11111111111109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>40</v>
       </c>
       <c r="B8" s="4">
-        <v>78.888888888888886</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
-        <v>73.333333333333329</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="D8" s="4">
-        <v>80</v>
+        <v>78.8888888888889</v>
       </c>
       <c r="E8" s="4">
-        <v>78.8888888888889</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="F8" s="4">
-        <v>80</v>
+        <v>81.111111111111114</v>
       </c>
       <c r="G8" s="4">
-        <v>78.8888888888889</v>
+        <v>92.222222222222229</v>
       </c>
       <c r="H8" s="4">
-        <v>75.555555555555557</v>
+        <v>87.777777777777786</v>
       </c>
       <c r="I8" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J8" s="4">
-        <v>66.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="K8" s="4">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="L8" s="5">
-        <v>763.33333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="L8">
+        <v>818.88888888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>50</v>
       </c>
       <c r="B9" s="4">
-        <v>77.777777777777771</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
+        <v>67.777777777777786</v>
+      </c>
+      <c r="D9" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="E9" s="4">
         <v>80</v>
       </c>
-      <c r="D9" s="4">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="E9" s="4">
-        <v>71.1111111111111</v>
-      </c>
       <c r="F9" s="4">
-        <v>73.333333333333329</v>
+        <v>87.777777777777786</v>
       </c>
       <c r="G9" s="4">
-        <v>80</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="H9" s="4">
-        <v>73.333333333333329</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="I9" s="4">
-        <v>82.222222222222229</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="J9" s="4">
-        <v>75.555555555555557</v>
+        <v>90</v>
       </c>
       <c r="K9" s="4">
-        <v>80</v>
-      </c>
-      <c r="L9" s="5">
-        <v>769.99999999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="L9">
+        <v>823.33333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>60</v>
       </c>
       <c r="B10" s="4">
-        <v>80</v>
+        <v>58.888888888888893</v>
       </c>
       <c r="C10" s="4">
-        <v>73.333333333333329</v>
+        <v>71.1111111111111</v>
       </c>
       <c r="D10" s="4">
-        <v>74.444444444444443</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="E10" s="4">
-        <v>75.555555555555557</v>
+        <v>81.1111111111111</v>
       </c>
       <c r="F10" s="4">
         <v>80</v>
       </c>
       <c r="G10" s="4">
-        <v>71.111111111111114</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="H10" s="4">
-        <v>76.666666666666671</v>
+        <v>92.222222222222229</v>
       </c>
       <c r="I10" s="4">
-        <v>76.666666666666671</v>
+        <v>91.1111111111111</v>
       </c>
       <c r="J10" s="4">
-        <v>71.1111111111111</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="K10" s="4">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="L10" s="5">
-        <v>753.33333333333326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91.111111111111128</v>
+      </c>
+      <c r="L10">
+        <v>822.22222222222229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>70</v>
       </c>
       <c r="B11" s="4">
-        <v>82.222222222222229</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4">
-        <v>75.555555555555557</v>
+        <v>71.1111111111111</v>
       </c>
       <c r="D11" s="4">
-        <v>76.666666666666671</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="E11" s="4">
-        <v>80</v>
+        <v>84.444444444444443</v>
       </c>
       <c r="F11" s="4">
-        <v>68.8888888888889</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="G11" s="4">
-        <v>77.777777777777771</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="H11" s="4">
-        <v>68.8888888888889</v>
+        <v>92.222222222222214</v>
       </c>
       <c r="I11" s="4">
-        <v>72.222222222222214</v>
+        <v>92.222222222222229</v>
       </c>
       <c r="J11" s="4">
-        <v>70</v>
+        <v>95.555555555555543</v>
       </c>
       <c r="K11" s="4">
-        <v>67.777777777777786</v>
-      </c>
-      <c r="L11" s="5">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="L11">
+        <v>851.11111111111109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>80</v>
       </c>
       <c r="B12" s="4">
-        <v>78.888888888888886</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4">
-        <v>77.777777777777786</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="D12" s="4">
-        <v>83.333333333333329</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="E12" s="4">
         <v>76.666666666666671</v>
       </c>
       <c r="F12" s="4">
-        <v>78.8888888888889</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="G12" s="4">
-        <v>76.666666666666671</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="H12" s="4">
-        <v>75.555555555555557</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="I12" s="4">
-        <v>77.777777777777771</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="J12" s="4">
-        <v>72.222222222222214</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="K12" s="4">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="L12" s="5">
-        <v>774.44444444444446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="L12">
+        <v>838.8888888888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>90</v>
       </c>
       <c r="B13" s="4">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="D13" s="4">
         <v>76.666666666666671</v>
       </c>
-      <c r="C13" s="4">
-        <v>80</v>
-      </c>
-      <c r="D13" s="4">
-        <v>77.777777777777786</v>
-      </c>
       <c r="E13" s="4">
-        <v>83.333333333333329</v>
+        <v>74.444444444444443</v>
       </c>
       <c r="F13" s="4">
-        <v>82.222222222222214</v>
+        <v>81.1111111111111</v>
       </c>
       <c r="G13" s="4">
-        <v>77.777777777777771</v>
+        <v>90</v>
       </c>
       <c r="H13" s="4">
-        <v>77.777777777777786</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="I13" s="4">
-        <v>72.222222222222229</v>
+        <v>92.222222222222214</v>
       </c>
       <c r="J13" s="4">
-        <v>75.555555555555557</v>
+        <v>95.555555555555543</v>
       </c>
       <c r="K13" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="L13" s="5">
-        <v>776.66666666666674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="L13">
+        <v>824.44444444444434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>100</v>
       </c>
       <c r="B14" s="4">
-        <v>73.333333333333329</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>73.333333333333329</v>
       </c>
       <c r="D14" s="4">
-        <v>80</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="E14" s="4">
-        <v>80</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="F14" s="4">
-        <v>78.8888888888889</v>
+        <v>85.555555555555543</v>
       </c>
       <c r="G14" s="4">
-        <v>75.555555555555557</v>
+        <v>84.444444444444443</v>
       </c>
       <c r="H14" s="4">
-        <v>76.666666666666671</v>
+        <v>91.1111111111111</v>
       </c>
       <c r="I14" s="4">
-        <v>71.111111111111114</v>
+        <v>92.222222222222229</v>
       </c>
       <c r="J14" s="4">
-        <v>75.555555555555557</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="K14" s="4">
-        <v>71.1111111111111</v>
-      </c>
-      <c r="L14" s="5">
-        <v>755.55555555555543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="L14">
+        <v>838.88888888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
-        <v>773.33333333333337</v>
-      </c>
-      <c r="C15" s="5">
-        <v>773.33333333333337</v>
-      </c>
-      <c r="D15" s="5">
-        <v>776.66666666666674</v>
-      </c>
-      <c r="E15" s="5">
-        <v>768.88888888888891</v>
-      </c>
-      <c r="F15" s="5">
-        <v>760</v>
-      </c>
-      <c r="G15" s="5">
-        <v>757.77777777777771</v>
-      </c>
-      <c r="H15" s="5">
-        <v>738.88888888888891</v>
-      </c>
-      <c r="I15" s="5">
-        <v>732.22222222222217</v>
-      </c>
-      <c r="J15" s="5">
-        <v>721.11111111111109</v>
-      </c>
-      <c r="K15" s="5">
-        <v>722.22222222222229</v>
-      </c>
-      <c r="L15" s="5">
-        <v>7524.4444444444453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>594.44444444444446</v>
+      </c>
+      <c r="C15">
+        <v>694.44444444444446</v>
+      </c>
+      <c r="D15">
+        <v>766.66666666666652</v>
+      </c>
+      <c r="E15">
+        <v>788.8888888888888</v>
+      </c>
+      <c r="F15">
+        <v>825.55555555555543</v>
+      </c>
+      <c r="G15">
+        <v>882.22222222222229</v>
+      </c>
+      <c r="H15">
+        <v>907.77777777777783</v>
+      </c>
+      <c r="I15">
+        <v>915.55555555555566</v>
+      </c>
+      <c r="J15">
+        <v>924.44444444444434</v>
+      </c>
+      <c r="K15">
+        <v>913.33333333333314</v>
+      </c>
+      <c r="L15">
+        <v>8213.3333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -5265,6 +5267,809 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F099DB4-B36B-456B-B433-F0A003449443}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1">
+        <v>70</v>
+      </c>
+      <c r="I1">
+        <v>80</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4">
+        <v>63.333333333333343</v>
+      </c>
+      <c r="D2" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E2" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="F2" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="G2" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="H2" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="I2" s="4">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="J2" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K2" s="4">
+        <v>82.222222222222214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>57.777777777777779</v>
+      </c>
+      <c r="C3" s="4">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D3" s="4">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="E3" s="4">
+        <v>81.1111111111111</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>92.222222222222214</v>
+      </c>
+      <c r="I3" s="4">
+        <v>87.777777777777786</v>
+      </c>
+      <c r="J3" s="4">
+        <v>88.888888888888872</v>
+      </c>
+      <c r="K3" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>57.777777777777779</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="D4" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="E4" s="4">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="F4" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="G4" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="H4" s="4">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="I4" s="4">
+        <v>91.111111111111128</v>
+      </c>
+      <c r="J4" s="4">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="K4" s="4">
+        <v>88.888888888888872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D5" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="E5" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="F5" s="4">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G5" s="4">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="H5" s="4">
+        <v>87.777777777777786</v>
+      </c>
+      <c r="I5" s="4">
+        <v>90</v>
+      </c>
+      <c r="J5" s="4">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K5" s="4">
+        <v>91.1111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4">
+        <v>67.777777777777786</v>
+      </c>
+      <c r="D6" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="E6" s="4">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4">
+        <v>87.777777777777786</v>
+      </c>
+      <c r="G6" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="H6" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="I6" s="4">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="J6" s="4">
+        <v>90</v>
+      </c>
+      <c r="K6" s="4">
+        <v>91.1111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4">
+        <v>58.888888888888893</v>
+      </c>
+      <c r="C7" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="D7" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E7" s="4">
+        <v>81.1111111111111</v>
+      </c>
+      <c r="F7" s="4">
+        <v>80</v>
+      </c>
+      <c r="G7" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H7" s="4">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="I7" s="4">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="J7" s="4">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K7" s="4">
+        <v>91.111111111111128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="D8" s="4">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="E8" s="4">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="F8" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="G8" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H8" s="4">
+        <v>92.222222222222214</v>
+      </c>
+      <c r="I8" s="4">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="J8" s="4">
+        <v>95.555555555555543</v>
+      </c>
+      <c r="K8" s="4">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="D9" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="E9" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="F9" s="4">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="G9" s="4">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="H9" s="4">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="I9" s="4">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="J9" s="4">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="K9" s="4">
+        <v>95.555555555555557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="D10" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E10" s="4">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="F10" s="4">
+        <v>81.1111111111111</v>
+      </c>
+      <c r="G10" s="4">
+        <v>90</v>
+      </c>
+      <c r="H10" s="4">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I10" s="4">
+        <v>92.222222222222214</v>
+      </c>
+      <c r="J10" s="4">
+        <v>95.555555555555543</v>
+      </c>
+      <c r="K10" s="4">
+        <v>92.222222222222229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D11" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E11" s="4">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="F11" s="4">
+        <v>85.555555555555543</v>
+      </c>
+      <c r="G11" s="4">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H11" s="4">
+        <v>91.1111111111111</v>
+      </c>
+      <c r="I11" s="4">
+        <v>92.222222222222229</v>
+      </c>
+      <c r="J11" s="4">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K11" s="4">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7733B23B-F55D-4E0A-BBCE-B7FCD25B1753}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1">
+        <v>70</v>
+      </c>
+      <c r="I1">
+        <v>80</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="C2" s="4">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="D2" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E2" s="4">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4">
+        <v>65.555555555555557</v>
+      </c>
+      <c r="G2" s="4">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H2" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="I2" s="4">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="J2" s="4">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="K2" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="C3" s="4">
+        <v>82.222222222222214</v>
+      </c>
+      <c r="D3" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="E3" s="4">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="F3" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="G3" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H3" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="I3" s="4">
+        <v>65.555555555555557</v>
+      </c>
+      <c r="J3" s="4">
+        <v>70</v>
+      </c>
+      <c r="K3" s="4">
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="C4" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="D4" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E4" s="4">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="F4" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G4" s="4">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="H4" s="4">
+        <v>67.777777777777786</v>
+      </c>
+      <c r="I4" s="4">
+        <v>70</v>
+      </c>
+      <c r="J4" s="4">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="K4" s="4">
+        <v>68.8888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>78.888888888888886</v>
+      </c>
+      <c r="C5" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D5" s="4">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="F5" s="4">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="H5" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="I5" s="4">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K5" s="4">
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="C6" s="4">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E6" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="F6" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G6" s="4">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I6" s="4">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="J6" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="K6" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D7" s="4">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="E7" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="F7" s="4">
+        <v>80</v>
+      </c>
+      <c r="G7" s="4">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H7" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I7" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="J7" s="4">
+        <v>71.1111111111111</v>
+      </c>
+      <c r="K7" s="4">
+        <v>74.444444444444443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="C8" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="D8" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E8" s="4">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="G8" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H8" s="4">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="I8" s="4">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="J8" s="4">
+        <v>70</v>
+      </c>
+      <c r="K8" s="4">
+        <v>67.777777777777786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4">
+        <v>78.888888888888886</v>
+      </c>
+      <c r="C9" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="D9" s="4">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E9" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="F9" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="G9" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H9" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="I9" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="J9" s="4">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="K9" s="4">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="C10" s="4">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="E10" s="4">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F10" s="4">
+        <v>82.222222222222214</v>
+      </c>
+      <c r="G10" s="4">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H10" s="4">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="I10" s="4">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="J10" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="K10" s="4">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C11" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D11" s="4">
+        <v>80</v>
+      </c>
+      <c r="E11" s="4">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4">
+        <v>78.8888888888889</v>
+      </c>
+      <c r="G11" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="H11" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I11" s="4">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="J11" s="4">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="K11" s="4">
+        <v>71.1111111111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E201"/>
@@ -5273,14 +6078,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5297,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5314,7 +6119,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5331,7 +6136,7 @@
         <v>81.111111111111114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5348,7 +6153,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5365,7 +6170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5382,7 +6187,7 @@
         <v>65.555555555555557</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5399,7 +6204,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5416,7 +6221,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5433,7 +6238,7 @@
         <v>64.444444444444443</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5450,7 +6255,7 @@
         <v>72.222222222222214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5467,7 +6272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5484,7 +6289,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5501,7 +6306,7 @@
         <v>82.222222222222214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5518,7 +6323,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5535,7 +6340,7 @@
         <v>81.111111111111114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5552,7 +6357,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5569,7 +6374,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5586,7 +6391,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5603,7 +6408,7 @@
         <v>65.555555555555557</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5620,7 +6425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5637,7 +6442,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5654,7 +6459,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5671,7 +6476,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5688,7 +6493,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5705,7 +6510,7 @@
         <v>72.222222222222229</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5722,7 +6527,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5739,7 +6544,7 @@
         <v>72.222222222222229</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5756,7 +6561,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5773,7 +6578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5790,7 +6595,7 @@
         <v>72.222222222222229</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5807,7 +6612,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5824,7 +6629,7 @@
         <v>78.888888888888886</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5841,7 +6646,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5858,7 +6663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5875,7 +6680,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5892,7 +6697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5909,7 +6714,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5926,7 +6731,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5943,7 +6748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5960,7 +6765,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5977,7 +6782,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5994,7 +6799,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6011,7 +6816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6028,7 +6833,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6045,7 +6850,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6062,7 +6867,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6079,7 +6884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6096,7 +6901,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6113,7 +6918,7 @@
         <v>82.222222222222229</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6130,7 +6935,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6147,7 +6952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6164,7 +6969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6181,7 +6986,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6198,7 +7003,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6215,7 +7020,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6232,7 +7037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6249,7 +7054,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6266,7 +7071,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6283,7 +7088,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6300,7 +7105,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6317,7 +7122,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6334,7 +7139,7 @@
         <v>82.222222222222229</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6351,7 +7156,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6368,7 +7173,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6385,7 +7190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6402,7 +7207,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6419,7 +7224,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6436,7 +7241,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6453,7 +7258,7 @@
         <v>72.222222222222214</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6470,7 +7275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6487,7 +7292,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6504,7 +7309,7 @@
         <v>78.888888888888886</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6521,7 +7326,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6538,7 +7343,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6555,7 +7360,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6572,7 +7377,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6589,7 +7394,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6606,7 +7411,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6623,7 +7428,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6640,7 +7445,7 @@
         <v>72.222222222222214</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6657,7 +7462,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6674,7 +7479,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6691,7 +7496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6708,7 +7513,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6725,7 +7530,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6742,7 +7547,7 @@
         <v>82.222222222222214</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6759,7 +7564,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6776,7 +7581,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6793,7 +7598,7 @@
         <v>72.222222222222229</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6810,7 +7615,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6827,7 +7632,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6844,7 +7649,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6861,7 +7666,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6878,7 +7683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6895,7 +7700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6912,7 +7717,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6929,7 +7734,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6946,7 +7751,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6963,7 +7768,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6980,7 +7785,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6997,7 +7802,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7014,7 +7819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7031,7 +7836,7 @@
         <v>63.333333333333343</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7048,7 +7853,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7065,7 +7870,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7082,7 +7887,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7099,7 +7904,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7116,7 +7921,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7133,7 +7938,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7150,7 +7955,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7167,7 +7972,7 @@
         <v>82.222222222222214</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7184,7 +7989,7 @@
         <v>57.777777777777779</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7201,7 +8006,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7218,7 +8023,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7235,7 +8040,7 @@
         <v>81.1111111111111</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7252,7 +8057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7269,7 +8074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7286,7 +8091,7 @@
         <v>92.222222222222214</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7303,7 +8108,7 @@
         <v>87.777777777777786</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7320,7 +8125,7 @@
         <v>88.888888888888872</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7337,7 +8142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7354,7 +8159,7 @@
         <v>57.777777777777779</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7371,7 +8176,7 @@
         <v>67.777777777777771</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7388,7 +8193,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7405,7 +8210,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7422,7 +8227,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7439,7 +8244,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7456,7 +8261,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7473,7 +8278,7 @@
         <v>91.111111111111128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7490,7 +8295,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7507,7 +8312,7 @@
         <v>88.888888888888872</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7524,7 +8329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7541,7 +8346,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7558,7 +8363,7 @@
         <v>78.8888888888889</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7575,7 +8380,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7592,7 +8397,7 @@
         <v>81.111111111111114</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7609,7 +8414,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7626,7 +8431,7 @@
         <v>87.777777777777786</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7643,7 +8448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7660,7 +8465,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7677,7 +8482,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7694,7 +8499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7711,7 +8516,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7728,7 +8533,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7745,7 +8550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7762,7 +8567,7 @@
         <v>87.777777777777786</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7779,7 +8584,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7796,7 +8601,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7813,7 +8618,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7830,7 +8635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7847,7 +8652,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7864,7 +8669,7 @@
         <v>58.888888888888893</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7881,7 +8686,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7898,7 +8703,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7915,7 +8720,7 @@
         <v>81.1111111111111</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7932,7 +8737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7949,7 +8754,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7966,7 +8771,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7983,7 +8788,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8000,7 +8805,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8017,7 +8822,7 @@
         <v>91.111111111111128</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8034,7 +8839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8051,7 +8856,7 @@
         <v>71.1111111111111</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8068,7 +8873,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8085,7 +8890,7 @@
         <v>84.444444444444443</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8102,7 +8907,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8119,7 +8924,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8136,7 +8941,7 @@
         <v>92.222222222222214</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8153,7 +8958,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8170,7 +8975,7 @@
         <v>95.555555555555543</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8187,7 +8992,7 @@
         <v>94.444444444444443</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8204,7 +9009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8221,7 +9026,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8238,7 +9043,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8255,7 +9060,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8272,7 +9077,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8289,7 +9094,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8306,7 +9111,7 @@
         <v>88.8888888888889</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8323,7 +9128,7 @@
         <v>94.444444444444443</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8340,7 +9145,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8357,7 +9162,7 @@
         <v>95.555555555555557</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8374,7 +9179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8391,7 +9196,7 @@
         <v>68.8888888888889</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8408,7 +9213,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8425,7 +9230,7 @@
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8442,7 +9247,7 @@
         <v>81.1111111111111</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8459,7 +9264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8476,7 +9281,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8493,7 +9298,7 @@
         <v>92.222222222222214</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8510,7 +9315,7 @@
         <v>95.555555555555543</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8527,7 +9332,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8544,7 +9349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8561,7 +9366,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8578,7 +9383,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8595,7 +9400,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8612,7 +9417,7 @@
         <v>85.555555555555543</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8629,7 +9434,7 @@
         <v>84.444444444444443</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8646,7 +9451,7 @@
         <v>91.1111111111111</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8663,7 +9468,7 @@
         <v>92.222222222222229</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8680,7 +9485,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
